--- a/gd/世界观/海外版/剧情对话.xlsx
+++ b/gd/世界观/海外版/剧情对话.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26207"/>
-  <workbookPr filterPrivacy="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/MichaelTong/Desktop/GameGiraffe SVN/gd/世界观/海外版/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="11260" yWindow="5020" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,16 +12,11 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="430">
   <si>
     <t>（进入战斗）</t>
   </si>
@@ -410,30 +400,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>哼，闻到这些喽啰们的气味我就知道，这个地方的首领肯定是赛布勒斯。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>赛布勒斯？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是呀，看守地狱门的那条蠢狗，那股狗臭味老远就能闻见，真是让人烦躁！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（狐狸讨厌狗吗……）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总之如果是赛布勒斯的话，那就要做好充分的准备，看来我要拿出点本事了。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这样就行了，我们去找那条笨狗吧。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>任务1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -474,18 +440,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>哼，笨狗还不是乖乖被我打趴下了，有了代行者的力量，本狐狸今非昔比了~</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>你不是说来谈判吗，怎么上来就开打了……</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>能动手解决的，为什么要动口~多亏了笨狗，我们拿到了好东西呢。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>章节</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -506,10 +464,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>装备，看来笨狗来人界的时候还带过来了异界的装备，有了这些我们的实力也有了提高。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>（穿戴装备）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1323,25 +1277,453 @@
   </si>
   <si>
     <t>3-8开始</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-8结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没想到这个人夺取了这么多妖怪的能力！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果还有妖怪来到人界，一定还会被这个黑暗组织盯上……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说起来，到底异界发生了什么，为什么妖怪回来到人界？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>九尾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>………………</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们去异界看个清楚吧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>九尾？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…………好吧，不过回到异界唯一的办法就是房间里的传送门了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-1开始</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这里是哪里？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>啊！为什么传到了这么讨厌的地方！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">九尾 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这里是异界七大国度的火之国……传送门不稳定，这里离我们的目的地还很远</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我怎么感觉身体不太舒服</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因为穿过了屏障，人类也会被屏障削弱，就像妖怪去人界的时候一样，在这里千万不要轻举妄动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火之国的统治者是火神，是个十分可怕的存在……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哼，闻到这些喽啰们的气味我就知道，这个地方的首领肯定是皮影。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皮影？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是呀，一种掌控影子的怪物，如果不小心，就会被他拖进永恒的黑暗！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总之如果是皮影的话，那就要做好充分的准备，看来我要拿出点本事了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这样就行了，我们去找那条笨影子吧。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哼，笨影子还不是乖乖被我打趴下了，有了代行者的力量，本狐狸今非昔比了~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能动手解决的，为什么要动口~多亏了笨影子，我们拿到了好东西呢。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备，看来笨影子来人界的时候还带过来了异界的装备，有了这些我们的实力也有了提高。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（你们之前是有过过节吗……）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-2开始</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>热死了……我感觉我要化掉了……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我也是……感觉要干枯了……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整个火之国都是建立在一个巨大的火山中……在这里生活的全是一些喜爱火炎呃神怪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>啊……前面好像有一座大雪山~你们看到没？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喂喂……已经出现海市蜃楼的幻觉了吗……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>振作呀！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-3开始</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好棒……大雪山……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第四章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>再往前走，是凤凰的栖息地了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凤凰！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纵火犯……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是呀，因为凤凰的能力是涅槃，可以浴火重生，所以他们一遇到不开心的事就自焚了，是一群丧心病狂的纵火犯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总之我们还是离他们远点比较好……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-4开始</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前面是赤天狗的住处了，听说他是一个盲人，却拥有很强大的占卜能力呢~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我要去找他算算我的恋爱运~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赤天狗出现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赤天狗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说到恋爱你神采奕奕，完全不像是被热晕了的样子了呢……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哼，要你管！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盲人算命，百试百灵。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哇！果然有赤天狗！快帮我占卜！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嗯，这位小姐，你的面色很差呢，或许会有大灾难……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你一个瞎子怎么看出她的面色的？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…………………………</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>啊……哈哈……老夫身体不适，今天就不占卜了……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>别想跑！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-4结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哼，没想到你是这样的瞎子，快说火神殿怎么走</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喂喂……别打了！我错了还不行吗！扮演瞎子只是为了让占卜更可信啊……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你们要去找火神？过了这片山谷，前面就是了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>那好，我们走了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小姑娘……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嗯？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嗯……算了没事……你回到故乡的时候千万要小心……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-5开始</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>距离火神殿还有一段路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-6开始</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按照赤天狗所说，出了前面的山谷就应该能看到火神殿了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火神，到底是个什么样子的人？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火神十分可怕……总之你见到的时候千万不要乱说话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-7开始</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这里就是火神殿的前面了，不出意外的话，会有伊芙利特守卫在这里，我们要小心。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-8开始</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>诶？你么是来找我的吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前面马上就要进入火神殿了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喂喂，九尾，打底异界发生了什么，为什么你们会到人界去呢？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…………你到了就知道了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火神出现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火！火神大人！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>诶？！这是火神？这明明是个小孩子呀！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>住！住嘴！火神大人！他什么也没说！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>呐？你就是火神，好可爱，快放我们通过火之国吧。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大……大姐姐……好可怕……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>啊啊啊啊不好了！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火神一害怕的时候就会大哭，一大哭的时候就会释放吞噬天地的爆炎之力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>呜呜……好可怕……哇哇哇！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪女（害怕）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>河童（脱力）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪女（开心）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>河童（开心）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>九尾（脱力）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赤天狗（汗）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪女（好奇）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪女（）好奇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火神（哭）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1383,7 +1765,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1393,7 +1775,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1415,22 +1797,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="58" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1472,7 +1852,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1504,10 +1884,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1539,7 +1918,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1715,41 +2093,41 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:S226"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:S290"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
-      <selection activeCell="D218" sqref="D218"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="1"/>
-    <col min="2" max="2" width="8.83203125" style="2"/>
-    <col min="3" max="3" width="8.83203125" style="1"/>
-    <col min="4" max="4" width="15.1640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.1640625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.83203125" style="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="9" style="2"/>
+    <col min="3" max="3" width="9" style="1"/>
+    <col min="4" max="4" width="15.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.125" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" s="3" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" s="3" customFormat="1" ht="15.75" thickBot="1">
       <c r="A2" s="4" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
@@ -1759,12 +2137,12 @@
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>37</v>
@@ -1773,7 +2151,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13">
       <c r="E4" s="1" t="s">
         <v>39</v>
       </c>
@@ -1781,7 +2159,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13">
       <c r="E5" s="1" t="s">
         <v>37</v>
       </c>
@@ -1789,15 +2167,15 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13">
       <c r="E6" s="1" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13">
       <c r="E7" s="1" t="s">
         <v>39</v>
       </c>
@@ -1805,7 +2183,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13">
       <c r="E8" s="1" t="s">
         <v>37</v>
       </c>
@@ -1813,18 +2191,18 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13">
       <c r="B9" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13">
       <c r="E10" s="1" t="s">
         <v>37</v>
       </c>
@@ -1832,7 +2210,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13">
       <c r="E11" s="1" t="s">
         <v>39</v>
       </c>
@@ -1840,15 +2218,15 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13">
       <c r="D12" s="1" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13">
       <c r="E13" s="1" t="s">
         <v>37</v>
       </c>
@@ -1856,7 +2234,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13">
       <c r="E14" s="1" t="s">
         <v>39</v>
       </c>
@@ -1864,7 +2242,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13">
       <c r="E15" s="1" t="s">
         <v>37</v>
       </c>
@@ -1872,7 +2250,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13">
       <c r="E16" s="1" t="s">
         <v>39</v>
       </c>
@@ -1880,31 +2258,31 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6">
       <c r="E17" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6">
       <c r="E19" s="1" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6">
       <c r="E20" s="1" t="s">
         <v>39</v>
       </c>
@@ -1912,14 +2290,14 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6">
       <c r="E21" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6">
       <c r="D22" s="1" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>42</v>
@@ -1928,7 +2306,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6">
       <c r="E23" s="1" t="s">
         <v>37</v>
       </c>
@@ -1936,7 +2314,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6">
       <c r="E24" s="1" t="s">
         <v>39</v>
       </c>
@@ -1944,7 +2322,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6">
       <c r="E25" s="1" t="s">
         <v>37</v>
       </c>
@@ -1952,7 +2330,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6">
       <c r="E26" s="1" t="s">
         <v>39</v>
       </c>
@@ -1960,7 +2338,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6">
       <c r="E27" s="1" t="s">
         <v>37</v>
       </c>
@@ -1968,7 +2346,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6">
       <c r="E28" s="1" t="s">
         <v>39</v>
       </c>
@@ -1976,7 +2354,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6">
       <c r="E29" s="1" t="s">
         <v>39</v>
       </c>
@@ -1984,7 +2362,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6">
       <c r="E30" s="1" t="s">
         <v>37</v>
       </c>
@@ -1992,17 +2370,17 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6">
       <c r="C31" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6">
       <c r="D32" s="1" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>42</v>
@@ -2011,7 +2389,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:6">
       <c r="E33" s="1" t="s">
         <v>39</v>
       </c>
@@ -2019,7 +2397,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:6">
       <c r="E34" s="1" t="s">
         <v>39</v>
       </c>
@@ -2027,17 +2405,17 @@
         <v>64</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:6">
       <c r="C35" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:6">
       <c r="D36" s="1" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>39</v>
@@ -2046,7 +2424,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:6">
       <c r="E37" s="1" t="s">
         <v>39</v>
       </c>
@@ -2054,7 +2432,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:6">
       <c r="E38" s="1" t="s">
         <v>37</v>
       </c>
@@ -2062,7 +2440,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:6">
       <c r="E39" s="1" t="s">
         <v>39</v>
       </c>
@@ -2070,20 +2448,20 @@
         <v>72</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:6">
       <c r="B40" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:6">
       <c r="D41" s="1" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>37</v>
@@ -2092,15 +2470,15 @@
         <v>74</v>
       </c>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:6">
       <c r="E42" s="1" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:6">
       <c r="E43" s="1" t="s">
         <v>37</v>
       </c>
@@ -2108,31 +2486,31 @@
         <v>66</v>
       </c>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:6">
       <c r="E44" s="1" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:6">
       <c r="E45" s="1" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:6">
       <c r="E46" s="1" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:6">
       <c r="E47" s="1" t="s">
         <v>37</v>
       </c>
@@ -2140,7 +2518,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:6">
       <c r="E48" s="1" t="s">
         <v>39</v>
       </c>
@@ -2148,7 +2526,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:6">
       <c r="E49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2156,7 +2534,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:6">
       <c r="E50" s="1" t="s">
         <v>37</v>
       </c>
@@ -2164,7 +2542,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:6">
       <c r="E51" s="1" t="s">
         <v>42</v>
       </c>
@@ -2172,20 +2550,20 @@
         <v>88</v>
       </c>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:6">
       <c r="B52" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:6">
       <c r="D53" s="1" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>42</v>
@@ -2194,7 +2572,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:6">
       <c r="E54" s="1" t="s">
         <v>42</v>
       </c>
@@ -2202,17 +2580,17 @@
         <v>90</v>
       </c>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:6">
       <c r="C55" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:6">
       <c r="D56" s="1" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>42</v>
@@ -2221,7 +2599,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:6">
       <c r="E57" s="1" t="s">
         <v>39</v>
       </c>
@@ -2229,23 +2607,23 @@
         <v>92</v>
       </c>
     </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:6">
       <c r="E58" s="1" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:6">
       <c r="E59" s="1" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:6">
       <c r="E60" s="1" t="s">
         <v>42</v>
       </c>
@@ -2253,7 +2631,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:6">
       <c r="E61" s="1" t="s">
         <v>37</v>
       </c>
@@ -2261,7 +2639,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:6">
       <c r="E62" s="1" t="s">
         <v>39</v>
       </c>
@@ -2269,20 +2647,20 @@
         <v>96</v>
       </c>
     </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:6">
       <c r="B63" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:6">
       <c r="D64" s="1" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>39</v>
@@ -2291,33 +2669,33 @@
         <v>97</v>
       </c>
     </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:6">
       <c r="E65" s="1" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:6">
       <c r="E66" s="1" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:6">
       <c r="C67" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:6">
       <c r="D68" s="1" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>39</v>
@@ -2326,7 +2704,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:6">
       <c r="E69" s="1" t="s">
         <v>42</v>
       </c>
@@ -2334,7 +2712,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:6">
       <c r="E70" s="1" t="s">
         <v>39</v>
       </c>
@@ -2342,101 +2720,101 @@
         <v>102</v>
       </c>
     </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:6">
       <c r="E71" s="1" t="s">
         <v>39</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.2">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6">
       <c r="E72" s="1" t="s">
         <v>37</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.2">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6">
       <c r="E73" s="1" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.2">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6">
       <c r="E74" s="1" t="s">
-        <v>37</v>
+        <v>326</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.2">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6">
       <c r="E75" s="1" t="s">
         <v>39</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.2">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6">
       <c r="C76" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:6">
       <c r="E77" s="1" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.2">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6">
       <c r="B78" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:6">
       <c r="D79" s="1" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.2">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6">
       <c r="E80" s="1" t="s">
         <v>37</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="81" spans="2:6">
       <c r="E81" s="1" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.2">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="82" spans="2:6">
       <c r="E82" s="1" t="s">
         <v>37</v>
       </c>
@@ -2444,1223 +2822,1804 @@
         <v>86</v>
       </c>
     </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:6">
       <c r="E83" s="1" t="s">
         <v>39</v>
       </c>
       <c r="F83" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="84" spans="2:6">
+      <c r="C84" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="85" spans="2:6">
+      <c r="D85" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="86" spans="2:6">
+      <c r="E86" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="87" spans="2:6">
+      <c r="E87" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="88" spans="2:6">
+      <c r="E88" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="89" spans="2:6">
+      <c r="E89" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="90" spans="2:6">
+      <c r="E90" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="91" spans="2:6">
+      <c r="E91" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="92" spans="2:6">
+      <c r="E92" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="F92" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C84" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E84" s="1" t="s">
+    <row r="93" spans="2:6">
+      <c r="B93" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C93" s="1" t="s">
         <v>128</v>
-      </c>
-    </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="D85" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="E86" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="E87" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F87" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="E88" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="F88" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="E89" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="F89" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="E90" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="E91" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="F91" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="E92" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="F92" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="93" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B93" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>137</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="94" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:6">
       <c r="D94" s="1" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="95" spans="2:6" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="95" spans="2:6">
       <c r="E95" s="1" t="s">
         <v>39</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="96" spans="2:6" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="96" spans="2:6">
       <c r="D96" s="1" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>39</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="97" spans="2:6">
       <c r="E97" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="98" spans="2:6">
+      <c r="B98" s="2" t="s">
         <v>141</v>
-      </c>
-    </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B98" s="2" t="s">
-        <v>150</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="99" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:6">
       <c r="B99" s="2" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="100" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:6">
       <c r="E100" s="1" t="s">
         <v>39</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="101" spans="2:6" x14ac:dyDescent="0.2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="101" spans="2:6">
       <c r="B101" s="2" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="102" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:6">
       <c r="D102" s="1" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="103" spans="2:6" x14ac:dyDescent="0.2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="103" spans="2:6">
       <c r="E103" s="1" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="104" spans="2:6" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="104" spans="2:6">
       <c r="E104" s="1" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="105" spans="2:6" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="105" spans="2:6">
       <c r="E105" s="1" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="106" spans="2:6" x14ac:dyDescent="0.2">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="106" spans="2:6">
       <c r="E106" s="1" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="107" spans="2:6" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="107" spans="2:6">
       <c r="E107" s="1" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="108" spans="2:6" x14ac:dyDescent="0.2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="108" spans="2:6">
       <c r="E108" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="109" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:6">
       <c r="D109" s="1" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="F109" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="110" spans="2:6">
+      <c r="E110" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="111" spans="2:6">
+      <c r="E111" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="112" spans="2:6">
+      <c r="E112" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="E113" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="E114" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="E115" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="E116" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F116" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="110" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="E110" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="F110" s="1" t="s">
+    <row r="117" spans="1:6">
+      <c r="E117" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F117" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="111" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="E111" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="F111" s="1" t="s">
+    <row r="118" spans="1:6">
+      <c r="E118" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="F118" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="112" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="E112" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="F112" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E113" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F113" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E114" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="F114" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E115" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="F115" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E116" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F116" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E117" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F117" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E118" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="F118" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6">
       <c r="E119" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6">
       <c r="A120" s="1" t="s">
         <v>32</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
       <c r="E121" s="1" t="s">
         <v>39</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
       <c r="E122" s="1" t="s">
         <v>37</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
       <c r="E123" s="1" t="s">
         <v>39</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
       <c r="E124" s="1" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
       <c r="E125" s="1" t="s">
         <v>37</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
       <c r="E126" s="1" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
       <c r="E127" s="1" t="s">
         <v>42</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
       <c r="E128" s="1" t="s">
         <v>39</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="129" spans="2:19" x14ac:dyDescent="0.2">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="129" spans="2:19">
       <c r="B129" s="2" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="E129" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="130" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:19">
       <c r="D130" s="1" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="E130" s="1" t="s">
         <v>39</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="131" spans="2:19" x14ac:dyDescent="0.2">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="131" spans="2:19">
       <c r="B131" s="2" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="E131" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="132" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:19">
       <c r="D132" s="1" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="E132" s="1" t="s">
         <v>42</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="133" spans="2:19" x14ac:dyDescent="0.2">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="133" spans="2:19">
       <c r="E133" s="1" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="134" spans="2:19" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="134" spans="2:19">
       <c r="D134" s="1" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="E134" s="1" t="s">
         <v>37</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="135" spans="2:19" x14ac:dyDescent="0.2">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="135" spans="2:19">
       <c r="E135" s="1" t="s">
         <v>39</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="136" spans="2:19" x14ac:dyDescent="0.2">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="136" spans="2:19">
       <c r="E136" s="1" t="s">
         <v>39</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="137" spans="2:19" x14ac:dyDescent="0.2">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="137" spans="2:19">
       <c r="E137" s="1" t="s">
         <v>37</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="138" spans="2:19" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="138" spans="2:19">
       <c r="E138" s="1" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="S138" s="6"/>
     </row>
-    <row r="139" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:19">
       <c r="E139" s="1" t="s">
         <v>39</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="140" spans="2:19" x14ac:dyDescent="0.2">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="140" spans="2:19">
       <c r="B140" s="2" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="E140" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="141" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:19">
       <c r="D141" s="1" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="E141" s="1" t="s">
         <v>37</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="142" spans="2:19" x14ac:dyDescent="0.2">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="142" spans="2:19">
       <c r="E142" s="1" t="s">
         <v>39</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="143" spans="2:19" x14ac:dyDescent="0.2">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="143" spans="2:19">
       <c r="E143" s="1" t="s">
         <v>37</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="144" spans="2:19" x14ac:dyDescent="0.2">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="144" spans="2:19">
       <c r="E144" s="1" t="s">
         <v>39</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="145" spans="2:6" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="145" spans="2:6">
       <c r="E145" s="1" t="s">
         <v>37</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="146" spans="2:6" x14ac:dyDescent="0.2">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="146" spans="2:6">
       <c r="E146" s="1" t="s">
         <v>42</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="147" spans="2:6" x14ac:dyDescent="0.2">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="147" spans="2:6">
       <c r="B147" s="2" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="E147" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="148" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:6">
       <c r="D148" s="1" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="149" spans="2:6" x14ac:dyDescent="0.2">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="149" spans="2:6">
       <c r="E149" s="1" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="150" spans="2:6" x14ac:dyDescent="0.2">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="150" spans="2:6">
       <c r="E150" s="1" t="s">
         <v>37</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="151" spans="2:6" x14ac:dyDescent="0.2">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="151" spans="2:6">
       <c r="E151" s="1" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="152" spans="2:6" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="152" spans="2:6">
       <c r="E152" s="1" t="s">
         <v>37</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="153" spans="2:6" x14ac:dyDescent="0.2">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="153" spans="2:6">
       <c r="E153" s="1" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="154" spans="2:6" x14ac:dyDescent="0.2">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="154" spans="2:6">
       <c r="E154" s="1" t="s">
         <v>39</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="155" spans="2:6" x14ac:dyDescent="0.2">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="155" spans="2:6">
       <c r="B155" s="2" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="E155" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="156" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:6">
       <c r="D156" s="1" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="157" spans="2:6" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="157" spans="2:6">
       <c r="E157" s="1" t="s">
         <v>39</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="158" spans="2:6" x14ac:dyDescent="0.2">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="158" spans="2:6">
       <c r="E158" s="1" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="159" spans="2:6" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="159" spans="2:6">
       <c r="E159" s="1" t="s">
         <v>42</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="160" spans="2:6" x14ac:dyDescent="0.2">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="160" spans="2:6">
       <c r="E160" s="1" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="161" spans="2:6" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="161" spans="2:6">
       <c r="E161" s="1" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="162" spans="2:6" x14ac:dyDescent="0.2">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="162" spans="2:6">
       <c r="E162" s="1" t="s">
         <v>37</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="163" spans="2:6" x14ac:dyDescent="0.2">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="163" spans="2:6">
       <c r="E163" s="1" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="164" spans="2:6" x14ac:dyDescent="0.2">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="164" spans="2:6">
       <c r="B164" s="2" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="E164" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="165" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:6">
       <c r="D165" s="1" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="166" spans="2:6" x14ac:dyDescent="0.2">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="166" spans="2:6">
       <c r="E166" s="1" t="s">
         <v>39</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="167" spans="2:6" x14ac:dyDescent="0.2">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="167" spans="2:6">
       <c r="E167" s="1" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="168" spans="2:6" x14ac:dyDescent="0.2">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="168" spans="2:6">
       <c r="E168" s="1" t="s">
         <v>39</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="169" spans="2:6" x14ac:dyDescent="0.2">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="169" spans="2:6">
       <c r="E169" s="1" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="170" spans="2:6" x14ac:dyDescent="0.2">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="170" spans="2:6">
       <c r="D170" s="1" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="171" spans="2:6" x14ac:dyDescent="0.2">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="171" spans="2:6">
       <c r="B171" s="2" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="E171" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="172" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="172" spans="2:6">
       <c r="D172" s="1" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="173" spans="2:6" x14ac:dyDescent="0.2">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="173" spans="2:6">
       <c r="E173" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="F173" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="174" spans="2:6">
+      <c r="E174" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="F174" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="175" spans="2:6">
+      <c r="E175" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F175" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="176" spans="2:6">
+      <c r="E176" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="F173" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="174" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="E174" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="F174" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="175" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="E175" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F175" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="176" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="E176" s="1" t="s">
-        <v>290</v>
-      </c>
       <c r="F176" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6">
       <c r="E177" s="1" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6">
       <c r="B178" s="2" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="E178" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:6">
       <c r="A179" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6">
       <c r="E180" s="1" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6">
       <c r="E181" s="1" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6">
       <c r="E182" s="1" t="s">
         <v>39</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6">
       <c r="E183" s="1" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6">
       <c r="E184" s="1" t="s">
         <v>39</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6">
       <c r="B185" s="2" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="E185" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:6">
       <c r="D186" s="1" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6">
       <c r="E187" s="1" t="s">
         <v>39</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6">
       <c r="E188" s="1" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6">
       <c r="E189" s="1" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6">
       <c r="D190" s="1" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="E190" s="1" t="s">
         <v>39</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6">
       <c r="E191" s="1" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6">
       <c r="E192" s="1" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="193" spans="2:6" x14ac:dyDescent="0.2">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="193" spans="2:6">
       <c r="E193" s="1" t="s">
         <v>39</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="194" spans="2:6" x14ac:dyDescent="0.2">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="194" spans="2:6">
       <c r="B194" s="2" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="E194" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="195" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="195" spans="2:6">
       <c r="D195" s="1" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="196" spans="2:6" x14ac:dyDescent="0.2">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="196" spans="2:6">
       <c r="E196" s="1" t="s">
         <v>39</v>
       </c>
       <c r="F196" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="197" spans="2:6" x14ac:dyDescent="0.2">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="197" spans="2:6">
       <c r="B197" s="2" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="E197" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="198" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="198" spans="2:6">
       <c r="D198" s="1" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="199" spans="2:6" x14ac:dyDescent="0.2">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="199" spans="2:6">
       <c r="E199" s="1" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="F199" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="200" spans="2:6" x14ac:dyDescent="0.2">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="200" spans="2:6">
       <c r="E200" s="1" t="s">
         <v>39</v>
       </c>
       <c r="F200" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="201" spans="2:6" x14ac:dyDescent="0.2">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="201" spans="2:6">
       <c r="B201" s="2" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="E201" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="202" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="202" spans="2:6">
       <c r="D202" s="1" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="F202" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="203" spans="2:6" x14ac:dyDescent="0.2">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="203" spans="2:6">
       <c r="E203" s="1" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="F203" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="204" spans="2:6" x14ac:dyDescent="0.2">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="204" spans="2:6">
       <c r="E204" s="1" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="F204" s="1" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="205" spans="2:6" x14ac:dyDescent="0.2">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="205" spans="2:6">
       <c r="E205" s="1" t="s">
         <v>37</v>
       </c>
       <c r="F205" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="206" spans="2:6" x14ac:dyDescent="0.2">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="206" spans="2:6">
       <c r="E206" s="1" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="F206" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="207" spans="2:6" x14ac:dyDescent="0.2">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="207" spans="2:6">
       <c r="B207" s="2" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="E207" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="208" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="208" spans="2:6">
       <c r="D208" s="1" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="F208" s="1" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="209" spans="2:6" x14ac:dyDescent="0.2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="209" spans="2:6">
       <c r="E209" s="1" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="F209" s="1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="210" spans="2:6" x14ac:dyDescent="0.2">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="210" spans="2:6">
       <c r="E210" s="1" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="F210" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="211" spans="2:6" x14ac:dyDescent="0.2">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="211" spans="2:6">
       <c r="E211" s="1" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="F211" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="212" spans="2:6" x14ac:dyDescent="0.2">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="212" spans="2:6">
       <c r="E212" s="1" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="F212" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="213" spans="2:6" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="213" spans="2:6">
       <c r="E213" s="1" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="F213" s="1" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="214" spans="2:6" x14ac:dyDescent="0.2">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="214" spans="2:6">
       <c r="E214" s="1" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="F214" s="1" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="215" spans="2:6" x14ac:dyDescent="0.2">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="215" spans="2:6">
       <c r="B215" s="2" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="E215" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="216" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="216" spans="2:6">
       <c r="D216" s="1" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="F216" s="1" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="217" spans="2:6" x14ac:dyDescent="0.2">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="217" spans="2:6">
       <c r="E217" s="1" t="s">
         <v>39</v>
       </c>
       <c r="F217" s="1" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="218" spans="2:6" x14ac:dyDescent="0.2">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="218" spans="2:6">
       <c r="E218" s="1" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="F218" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="219" spans="2:6" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="219" spans="2:6">
       <c r="E219" s="1" t="s">
         <v>39</v>
       </c>
       <c r="F219" s="1" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="220" spans="2:6" x14ac:dyDescent="0.2">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="220" spans="2:6">
       <c r="E220" s="1" t="s">
         <v>37</v>
       </c>
       <c r="F220" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="221" spans="2:6" x14ac:dyDescent="0.2">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="221" spans="2:6">
       <c r="E221" s="1" t="s">
         <v>39</v>
       </c>
       <c r="F221" s="1" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="222" spans="2:6" x14ac:dyDescent="0.2">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="222" spans="2:6">
       <c r="B222" s="2" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="E222" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="223" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="223" spans="2:6">
       <c r="D223" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="E223" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="F223" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="224" spans="2:6">
+      <c r="E224" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="F224" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6">
+      <c r="E225" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="F225" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6">
+      <c r="B226" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D226" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="E226" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="F226" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6">
+      <c r="E227" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="F227" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6">
+      <c r="E228" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="F228" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6">
+      <c r="E229" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="F229" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6">
+      <c r="E230" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="F230" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="E223" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="F223" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="224" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="E224" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="F224" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="225" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="E225" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="F225" s="1" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="226" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B226" s="2" t="s">
-        <v>181</v>
+    </row>
+    <row r="231" spans="1:6">
+      <c r="E231" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="F231" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6">
+      <c r="E232" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="F232" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6">
+      <c r="E233" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="F233" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6">
+      <c r="A234" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B234" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="D234" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="E234" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="F234" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6">
+      <c r="E235" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="F235" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6">
+      <c r="E236" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="F236" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6">
+      <c r="E237" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="F237" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6">
+      <c r="E238" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="F238" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6">
+      <c r="E239" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="F239" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6">
+      <c r="B240" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="D240" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="E240" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="F240" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="241" spans="2:6">
+      <c r="E241" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="F241" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="242" spans="2:6">
+      <c r="E242" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="F242" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="243" spans="2:6">
+      <c r="E243" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="F243" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="244" spans="2:6">
+      <c r="E244" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="F244" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="245" spans="2:6">
+      <c r="E245" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="F245" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="246" spans="2:6">
+      <c r="E246" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="F246" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="247" spans="2:6">
+      <c r="B247" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="D247" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="E247" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="F247" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="248" spans="2:6">
+      <c r="E248" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="F248" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="249" spans="2:6">
+      <c r="E249" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="F249" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="250" spans="2:6">
+      <c r="E250" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="F250" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="251" spans="2:6">
+      <c r="E251" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="F251" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="252" spans="2:6">
+      <c r="B252" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="D252" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="E252" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="F252" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="253" spans="2:6">
+      <c r="E253" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="F253" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="254" spans="2:6">
+      <c r="E254" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="F254" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="255" spans="2:6">
+      <c r="E255" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="F255" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="256" spans="2:6">
+      <c r="D256" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="E256" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="F256" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="257" spans="4:6">
+      <c r="E257" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="F257" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="258" spans="4:6">
+      <c r="E258" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="F258" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="259" spans="4:6">
+      <c r="E259" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="F259" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="260" spans="4:6">
+      <c r="E260" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="F260" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="261" spans="4:6">
+      <c r="E261" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="F261" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="262" spans="4:6">
+      <c r="E262" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="F262" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="263" spans="4:6">
+      <c r="E263" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="F263" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="264" spans="4:6">
+      <c r="E264" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="F264" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="265" spans="4:6">
+      <c r="D265" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="E265" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="F265" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="266" spans="4:6">
+      <c r="E266" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="F266" s="1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="267" spans="4:6">
+      <c r="E267" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="F267" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="268" spans="4:6">
+      <c r="E268" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="F268" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="269" spans="4:6">
+      <c r="E269" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="F269" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="270" spans="4:6">
+      <c r="E270" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="F270" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="271" spans="4:6">
+      <c r="E271" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="F271" s="1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="272" spans="4:6">
+      <c r="E272" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="F272" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="273" spans="2:6">
+      <c r="B273" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="D273" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="E273" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="F273" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="274" spans="2:6">
+      <c r="B274" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="D274" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="E274" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="F274" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="275" spans="2:6">
+      <c r="E275" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="F275" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="276" spans="2:6">
+      <c r="E276" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="F276" s="1" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="277" spans="2:6">
+      <c r="B277" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="D277" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="E277" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="F277" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="278" spans="2:6">
+      <c r="B278" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="D278" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="E278" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="F278" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="279" spans="2:6">
+      <c r="E279" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="F279" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="280" spans="2:6">
+      <c r="E280" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="F280" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="281" spans="2:6">
+      <c r="D281" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="E281" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="F281" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="282" spans="2:6">
+      <c r="E282" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="F282" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="283" spans="2:6">
+      <c r="E283" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="F283" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="284" spans="2:6">
+      <c r="E284" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="F284" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="285" spans="2:6">
+      <c r="E285" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="F285" s="1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="286" spans="2:6">
+      <c r="E286" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="F286" s="1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="287" spans="2:6">
+      <c r="E287" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="F287" s="1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="288" spans="2:6">
+      <c r="E288" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="F288" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="289" spans="5:6">
+      <c r="E289" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="F289" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="290" spans="5:6">
+      <c r="E290" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="F290" s="1" t="s">
+        <v>412</v>
       </c>
     </row>
   </sheetData>
@@ -3671,12 +4630,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3685,12 +4644,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
